--- a/doc/sincronia.xlsx
+++ b/doc/sincronia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/espinosaclara_uniovi_es/Documents/IMIB/Softwares/GitHub/movealong/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{85851097-4500-4FE7-812A-FCEAB4C46481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{85851097-4500-4FE7-812A-FCEAB4C46481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5128377A-D585-475F-8016-F0E42CA81B63}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{685FA789-1079-4A95-AB17-FEA60A927E1F}"/>
   </bookViews>
@@ -521,9 +521,6 @@
     <t>Carex sempervirens</t>
   </si>
   <si>
-    <t>Cerastium sp</t>
-  </si>
-  <si>
     <t>Conopodium majus</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>Spergula morisonii</t>
+  </si>
+  <si>
+    <t>Cerastium ramosissimum</t>
   </si>
 </sst>
 </file>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7586A908-B3BB-439F-8730-964F09BA22F3}">
   <dimension ref="A1:H820"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B114" t="s">
         <v>77</v>
@@ -3612,7 +3612,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
         <v>77</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
         <v>77</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s">
         <v>77</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
         <v>77</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B120" t="s">
         <v>77</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B121" t="s">
         <v>78</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
         <v>78</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B123" t="s">
         <v>78</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
         <v>78</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
         <v>78</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
         <v>78</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B127" t="s">
         <v>78</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B128" t="s">
         <v>78</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B129" t="s">
         <v>78</v>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B130" t="s">
         <v>78</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B131" t="s">
         <v>78</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
         <v>78</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B133" t="s">
         <v>80</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B134" t="s">
         <v>80</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B135" t="s">
         <v>80</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B136" t="s">
         <v>80</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B137" t="s">
         <v>80</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138" t="s">
         <v>80</v>
@@ -4164,7 +4164,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
         <v>80</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
         <v>80</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
         <v>80</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
         <v>80</v>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B143" t="s">
         <v>80</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B144" t="s">
         <v>80</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" t="s">
         <v>82</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B146" t="s">
         <v>82</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B147" t="s">
         <v>82</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B148" t="s">
         <v>82</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B149" t="s">
         <v>82</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B150" t="s">
         <v>82</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B151" t="s">
         <v>82</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B152" t="s">
         <v>82</v>
@@ -4486,7 +4486,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B153" t="s">
         <v>83</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154" t="s">
         <v>83</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s">
         <v>83</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" t="s">
         <v>83</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
         <v>83</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
         <v>83</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
         <v>83</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
         <v>83</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B161" t="s">
         <v>84</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
         <v>84</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
         <v>84</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>84</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>84</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
         <v>84</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
         <v>84</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
         <v>84</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B169" t="s">
         <v>84</v>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B170" t="s">
         <v>84</v>
@@ -4900,7 +4900,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B171" t="s">
         <v>84</v>
@@ -4923,7 +4923,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B172" t="s">
         <v>84</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B173" t="s">
         <v>86</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B174" t="s">
         <v>86</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B175" t="s">
         <v>86</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B176" t="s">
         <v>86</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B177" t="s">
         <v>86</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B178" t="s">
         <v>86</v>
@@ -5084,7 +5084,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B179" t="s">
         <v>86</v>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B180" t="s">
         <v>86</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B181" t="s">
         <v>86</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B182" t="s">
         <v>86</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B183" t="s">
         <v>86</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B184" t="s">
         <v>86</v>
@@ -5406,7 +5406,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B193" t="s">
         <v>17</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B194" t="s">
         <v>17</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B195" t="s">
         <v>17</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B196" t="s">
         <v>17</v>
@@ -5498,7 +5498,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B197" t="s">
         <v>17</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B198" t="s">
         <v>17</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B199" t="s">
         <v>17</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B200" t="s">
         <v>17</v>
@@ -5590,7 +5590,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B201" t="s">
         <v>18</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B202" t="s">
         <v>18</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B203" t="s">
         <v>18</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B204" t="s">
         <v>18</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B205" t="s">
         <v>18</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B206" t="s">
         <v>18</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B207" t="s">
         <v>18</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B208" t="s">
         <v>18</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B213" t="s">
         <v>88</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B214" t="s">
         <v>89</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B215" t="s">
         <v>89</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B216" t="s">
         <v>89</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B217" t="s">
         <v>89</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B218" t="s">
         <v>89</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B219" t="s">
         <v>89</v>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B220" t="s">
         <v>89</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B221" t="s">
         <v>89</v>
@@ -6073,7 +6073,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B222" t="s">
         <v>89</v>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B223" t="s">
         <v>89</v>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B224" t="s">
         <v>89</v>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B225" t="s">
         <v>89</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B226" t="s">
         <v>91</v>
@@ -6188,7 +6188,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B227" t="s">
         <v>91</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B228" t="s">
         <v>91</v>
@@ -6234,7 +6234,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B229" t="s">
         <v>91</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B230" t="s">
         <v>91</v>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B231" t="s">
         <v>91</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B232" t="s">
         <v>91</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B233" t="s">
         <v>91</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B234" t="s">
         <v>91</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B235" t="s">
         <v>91</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B236" t="s">
         <v>91</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B237" t="s">
         <v>91</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B254" t="s">
         <v>93</v>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B255" t="s">
         <v>93</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B256" t="s">
         <v>93</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B257" t="s">
         <v>93</v>
@@ -6901,7 +6901,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B258" t="s">
         <v>93</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B259" t="s">
         <v>93</v>
@@ -6947,7 +6947,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B260" t="s">
         <v>93</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B261" t="s">
         <v>93</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B262" t="s">
         <v>93</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B263" t="s">
         <v>94</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B264" t="s">
         <v>94</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B265" t="s">
         <v>94</v>
@@ -7085,7 +7085,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B266" t="s">
         <v>94</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B267" t="s">
         <v>94</v>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B268" t="s">
         <v>94</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B269" t="s">
         <v>94</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B270" t="s">
         <v>94</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B271" t="s">
         <v>95</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B272" t="s">
         <v>95</v>
@@ -7246,7 +7246,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B273" t="s">
         <v>95</v>
@@ -7269,7 +7269,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B274" t="s">
         <v>95</v>
@@ -7292,7 +7292,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B275" t="s">
         <v>95</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B276" t="s">
         <v>95</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B277" t="s">
         <v>95</v>
@@ -7361,7 +7361,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B278" t="s">
         <v>95</v>
@@ -7384,7 +7384,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B279" t="s">
         <v>96</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B280" t="s">
         <v>96</v>
@@ -7430,7 +7430,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B281" t="s">
         <v>96</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B282" t="s">
         <v>96</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B283" t="s">
         <v>96</v>
@@ -7499,7 +7499,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B284" t="s">
         <v>96</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B285" t="s">
         <v>96</v>
@@ -7545,7 +7545,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B286" t="s">
         <v>96</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B287" t="s">
         <v>97</v>
@@ -7591,7 +7591,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B288" t="s">
         <v>97</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B289" t="s">
         <v>97</v>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B290" t="s">
         <v>97</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B291" t="s">
         <v>97</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B292" t="s">
         <v>97</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B293" t="s">
         <v>97</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B294" t="s">
         <v>97</v>
@@ -7752,7 +7752,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B295" t="s">
         <v>25</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B296" t="s">
         <v>25</v>
@@ -7798,7 +7798,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B297" t="s">
         <v>25</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B298" t="s">
         <v>25</v>
@@ -7844,7 +7844,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B299" t="s">
         <v>25</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B300" t="s">
         <v>25</v>
@@ -7890,7 +7890,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B301" t="s">
         <v>25</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B302" t="s">
         <v>25</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B303" t="s">
         <v>25</v>
@@ -7959,7 +7959,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B304" t="s">
         <v>25</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B305" t="s">
         <v>25</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B306" t="s">
         <v>25</v>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B307" t="s">
         <v>27</v>
@@ -8051,7 +8051,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B308" t="s">
         <v>27</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B309" t="s">
         <v>27</v>
@@ -8097,7 +8097,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B310" t="s">
         <v>27</v>
@@ -8120,7 +8120,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B311" t="s">
         <v>27</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B312" t="s">
         <v>27</v>
@@ -8166,7 +8166,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B313" t="s">
         <v>27</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B314" t="s">
         <v>27</v>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B315" t="s">
         <v>27</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B316" t="s">
         <v>27</v>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B317" t="s">
         <v>27</v>
@@ -8281,7 +8281,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B318" t="s">
         <v>98</v>
@@ -8304,7 +8304,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B319" t="s">
         <v>98</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B320" t="s">
         <v>98</v>
@@ -8350,7 +8350,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B321" t="s">
         <v>98</v>
@@ -8373,7 +8373,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B322" t="s">
         <v>29</v>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B323" t="s">
         <v>29</v>
@@ -8419,7 +8419,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B324" t="s">
         <v>29</v>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B325" t="s">
         <v>29</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B326" t="s">
         <v>29</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B327" t="s">
         <v>29</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B328" t="s">
         <v>29</v>
@@ -8534,7 +8534,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B329" t="s">
         <v>29</v>
@@ -8557,7 +8557,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B330" t="s">
         <v>30</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B331" t="s">
         <v>30</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B332" t="s">
         <v>30</v>
@@ -8626,7 +8626,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B333" t="s">
         <v>30</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B334" t="s">
         <v>30</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B335" t="s">
         <v>30</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B336" t="s">
         <v>30</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B337" t="s">
         <v>30</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B338" t="s">
         <v>30</v>
@@ -8764,7 +8764,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B339" t="s">
         <v>100</v>
@@ -8787,7 +8787,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B340" t="s">
         <v>100</v>
@@ -8810,7 +8810,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B341" t="s">
         <v>100</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B342" t="s">
         <v>100</v>
@@ -8856,7 +8856,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B343" t="s">
         <v>100</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B344" t="s">
         <v>100</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B345" t="s">
         <v>101</v>
@@ -8925,7 +8925,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B346" t="s">
         <v>101</v>
@@ -8948,7 +8948,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B347" t="s">
         <v>101</v>
@@ -8971,7 +8971,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B348" t="s">
         <v>101</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B349" t="s">
         <v>101</v>
@@ -9017,7 +9017,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B350" t="s">
         <v>101</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B380" t="s">
         <v>105</v>
@@ -9730,7 +9730,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B381" t="s">
         <v>105</v>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B382" t="s">
         <v>105</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B383" t="s">
         <v>105</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B384" t="s">
         <v>105</v>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B385" t="s">
         <v>105</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B386" t="s">
         <v>105</v>
@@ -9868,7 +9868,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B387" t="s">
         <v>105</v>
@@ -9891,7 +9891,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B388" t="s">
         <v>105</v>
@@ -9914,7 +9914,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B389" t="s">
         <v>105</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B390" t="s">
         <v>105</v>
@@ -9960,7 +9960,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B391" t="s">
         <v>105</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B392" t="s">
         <v>107</v>
@@ -10006,7 +10006,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B393" t="s">
         <v>107</v>
@@ -10029,7 +10029,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B394" t="s">
         <v>107</v>
@@ -10052,7 +10052,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B395" t="s">
         <v>107</v>
@@ -10075,7 +10075,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B396" t="s">
         <v>107</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B397" t="s">
         <v>107</v>
@@ -10121,7 +10121,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B398" t="s">
         <v>107</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B399" t="s">
         <v>107</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B400" t="s">
         <v>107</v>
@@ -10190,7 +10190,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B401" t="s">
         <v>107</v>
@@ -10213,7 +10213,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B402" t="s">
         <v>107</v>
@@ -10236,7 +10236,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B403" t="s">
         <v>107</v>
@@ -10259,7 +10259,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B404" t="s">
         <v>109</v>
@@ -10282,7 +10282,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B405" t="s">
         <v>109</v>
@@ -10305,7 +10305,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B406" t="s">
         <v>109</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B407" t="s">
         <v>109</v>
@@ -10351,7 +10351,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B408" t="s">
         <v>109</v>
@@ -10374,7 +10374,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B409" t="s">
         <v>109</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B410" t="s">
         <v>109</v>
@@ -10420,7 +10420,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B411" t="s">
         <v>109</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B412" t="s">
         <v>109</v>
@@ -10466,7 +10466,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B413" t="s">
         <v>109</v>
@@ -10489,7 +10489,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B414" t="s">
         <v>109</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B415" t="s">
         <v>109</v>
@@ -10535,7 +10535,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B416" t="s">
         <v>111</v>
@@ -10558,7 +10558,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B417" t="s">
         <v>111</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B418" t="s">
         <v>111</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B419" t="s">
         <v>111</v>
@@ -10627,7 +10627,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B420" t="s">
         <v>111</v>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B421" t="s">
         <v>111</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B422" t="s">
         <v>111</v>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B423" t="s">
         <v>111</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B424" t="s">
         <v>111</v>
@@ -10742,7 +10742,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B425" t="s">
         <v>111</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B426" t="s">
         <v>111</v>
@@ -10788,7 +10788,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B427" t="s">
         <v>111</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B428" t="s">
         <v>113</v>
@@ -10834,7 +10834,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B429" t="s">
         <v>113</v>
@@ -10857,7 +10857,7 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B430" t="s">
         <v>113</v>
@@ -10880,7 +10880,7 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B431" t="s">
         <v>113</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B432" t="s">
         <v>113</v>
@@ -10926,7 +10926,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B433" t="s">
         <v>113</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B434" t="s">
         <v>113</v>
@@ -10972,7 +10972,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B435" t="s">
         <v>113</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B436" t="s">
         <v>113</v>
@@ -11018,7 +11018,7 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B437" t="s">
         <v>113</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B438" t="s">
         <v>113</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B439" t="s">
         <v>113</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B440" t="s">
         <v>115</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B441" t="s">
         <v>115</v>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B442" t="s">
         <v>115</v>
@@ -11156,7 +11156,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B443" t="s">
         <v>115</v>
@@ -11179,7 +11179,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B444" t="s">
         <v>115</v>
@@ -11202,7 +11202,7 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B445" t="s">
         <v>115</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B446" t="s">
         <v>115</v>
@@ -11248,7 +11248,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B447" t="s">
         <v>115</v>
@@ -11455,7 +11455,7 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B456" t="s">
         <v>116</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B457" t="s">
         <v>116</v>
@@ -11501,7 +11501,7 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B458" t="s">
         <v>116</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B459" t="s">
         <v>116</v>
@@ -11547,7 +11547,7 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B460" t="s">
         <v>116</v>
@@ -11570,7 +11570,7 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B461" t="s">
         <v>116</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B462" t="s">
         <v>116</v>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B463" t="s">
         <v>116</v>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B464" t="s">
         <v>116</v>
@@ -11662,7 +11662,7 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B465" t="s">
         <v>116</v>
@@ -11685,7 +11685,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B466" t="s">
         <v>116</v>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B467" t="s">
         <v>116</v>
@@ -11731,7 +11731,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B468" t="s">
         <v>118</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B469" t="s">
         <v>118</v>
@@ -11777,7 +11777,7 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B470" t="s">
         <v>118</v>
@@ -11800,7 +11800,7 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B471" t="s">
         <v>118</v>
@@ -11823,7 +11823,7 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B472" t="s">
         <v>118</v>
@@ -11846,7 +11846,7 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B473" t="s">
         <v>118</v>
@@ -11869,7 +11869,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B474" t="s">
         <v>118</v>
@@ -11892,7 +11892,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B475" t="s">
         <v>118</v>
@@ -11915,7 +11915,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B476" t="s">
         <v>118</v>
@@ -11938,7 +11938,7 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B477" t="s">
         <v>118</v>
@@ -11961,7 +11961,7 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B478" t="s">
         <v>118</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B479" t="s">
         <v>118</v>
@@ -12007,7 +12007,7 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B480" t="s">
         <v>120</v>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B481" t="s">
         <v>120</v>
@@ -12053,7 +12053,7 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B482" t="s">
         <v>120</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B483" t="s">
         <v>120</v>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B484" t="s">
         <v>120</v>
@@ -12122,7 +12122,7 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B485" t="s">
         <v>120</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B486" t="s">
         <v>120</v>
@@ -12168,7 +12168,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B487" t="s">
         <v>120</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B488" t="s">
         <v>121</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B489" t="s">
         <v>121</v>
@@ -12237,7 +12237,7 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B490" t="s">
         <v>121</v>
@@ -12260,7 +12260,7 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B491" t="s">
         <v>121</v>
@@ -12283,7 +12283,7 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B492" t="s">
         <v>121</v>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B493" t="s">
         <v>121</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B494" t="s">
         <v>121</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B495" t="s">
         <v>121</v>
@@ -12375,7 +12375,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B496" t="s">
         <v>122</v>
@@ -12398,7 +12398,7 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B497" t="s">
         <v>122</v>
@@ -12421,7 +12421,7 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B498" t="s">
         <v>122</v>
@@ -12444,7 +12444,7 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B499" t="s">
         <v>122</v>
@@ -12467,7 +12467,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B500" t="s">
         <v>122</v>
@@ -12490,7 +12490,7 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B501" t="s">
         <v>122</v>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B502" t="s">
         <v>122</v>
@@ -12536,7 +12536,7 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B503" t="s">
         <v>122</v>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B504" t="s">
         <v>123</v>
@@ -12582,7 +12582,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B505" t="s">
         <v>123</v>
@@ -12605,7 +12605,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B506" t="s">
         <v>123</v>
@@ -12628,7 +12628,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B507" t="s">
         <v>123</v>
@@ -12651,7 +12651,7 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B508" t="s">
         <v>124</v>
@@ -12674,7 +12674,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B509" t="s">
         <v>124</v>
@@ -12697,7 +12697,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B510" t="s">
         <v>126</v>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B511" t="s">
         <v>126</v>
@@ -12743,7 +12743,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B512" t="s">
         <v>126</v>
@@ -12766,7 +12766,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B513" t="s">
         <v>126</v>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B514" t="s">
         <v>37</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B515" t="s">
         <v>37</v>
@@ -12835,7 +12835,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B516" t="s">
         <v>37</v>
@@ -12858,7 +12858,7 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B517" t="s">
         <v>37</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B518" t="s">
         <v>37</v>
@@ -12904,7 +12904,7 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B519" t="s">
         <v>37</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B520" t="s">
         <v>37</v>
@@ -12950,7 +12950,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B521" t="s">
         <v>37</v>
@@ -12973,7 +12973,7 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B522" t="s">
         <v>38</v>
@@ -12996,7 +12996,7 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B523" t="s">
         <v>38</v>
@@ -13019,7 +13019,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B524" t="s">
         <v>38</v>
@@ -13042,7 +13042,7 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B525" t="s">
         <v>38</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B526" t="s">
         <v>38</v>
@@ -13088,7 +13088,7 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B527" t="s">
         <v>38</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B528" t="s">
         <v>38</v>
@@ -13134,7 +13134,7 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B529" t="s">
         <v>38</v>
@@ -13157,7 +13157,7 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B530" t="s">
         <v>128</v>
@@ -13180,7 +13180,7 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B531" t="s">
         <v>128</v>
@@ -13203,7 +13203,7 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B532" t="s">
         <v>128</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B533" t="s">
         <v>128</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B534" t="s">
         <v>128</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B535" t="s">
         <v>128</v>
@@ -13617,7 +13617,7 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B550" t="s">
         <v>129</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B551" t="s">
         <v>129</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B552" t="s">
         <v>129</v>
@@ -13686,7 +13686,7 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B553" t="s">
         <v>129</v>
@@ -13709,7 +13709,7 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B554" t="s">
         <v>129</v>
@@ -13732,7 +13732,7 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B555" t="s">
         <v>129</v>
@@ -13755,7 +13755,7 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B556" t="s">
         <v>129</v>
@@ -13778,7 +13778,7 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B557" t="s">
         <v>129</v>
@@ -13801,7 +13801,7 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B558" t="s">
         <v>129</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B559" t="s">
         <v>129</v>
@@ -13847,7 +13847,7 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B560" t="s">
         <v>129</v>
@@ -13870,7 +13870,7 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B561" t="s">
         <v>129</v>
@@ -13893,7 +13893,7 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B562" t="s">
         <v>131</v>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B563" t="s">
         <v>131</v>
@@ -13939,7 +13939,7 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B564" t="s">
         <v>131</v>
@@ -13962,7 +13962,7 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B565" t="s">
         <v>131</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B566" t="s">
         <v>131</v>
@@ -14008,7 +14008,7 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B567" t="s">
         <v>131</v>
@@ -14031,7 +14031,7 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B568" t="s">
         <v>131</v>
@@ -14054,7 +14054,7 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B569" t="s">
         <v>131</v>
@@ -14077,7 +14077,7 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B570" t="s">
         <v>131</v>
@@ -14100,7 +14100,7 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B571" t="s">
         <v>131</v>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B572" t="s">
         <v>131</v>
@@ -14146,7 +14146,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B573" t="s">
         <v>131</v>
@@ -14169,7 +14169,7 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B574" t="s">
         <v>42</v>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B575" t="s">
         <v>42</v>
@@ -14261,7 +14261,7 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B578" t="s">
         <v>133</v>
@@ -14284,7 +14284,7 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B579" t="s">
         <v>133</v>
@@ -14307,7 +14307,7 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B580" t="s">
         <v>133</v>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B581" t="s">
         <v>133</v>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B582" t="s">
         <v>133</v>
@@ -14376,7 +14376,7 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B583" t="s">
         <v>133</v>
@@ -14399,7 +14399,7 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B584" t="s">
         <v>133</v>
@@ -14422,7 +14422,7 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B585" t="s">
         <v>133</v>
@@ -14445,7 +14445,7 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B586" t="s">
         <v>134</v>
@@ -14468,7 +14468,7 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B587" t="s">
         <v>134</v>
@@ -14491,7 +14491,7 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B588" t="s">
         <v>134</v>
@@ -14514,7 +14514,7 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B589" t="s">
         <v>134</v>
@@ -14537,7 +14537,7 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B590" t="s">
         <v>134</v>
@@ -14560,7 +14560,7 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B591" t="s">
         <v>134</v>
@@ -14583,7 +14583,7 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B592" t="s">
         <v>135</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B593" t="s">
         <v>135</v>
@@ -14629,7 +14629,7 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B594" t="s">
         <v>135</v>
@@ -14652,7 +14652,7 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B595" t="s">
         <v>135</v>
@@ -14675,7 +14675,7 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B596" t="s">
         <v>135</v>
@@ -14698,7 +14698,7 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B597" t="s">
         <v>135</v>
@@ -14721,7 +14721,7 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B598" t="s">
         <v>135</v>
@@ -14744,7 +14744,7 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B599" t="s">
         <v>135</v>
@@ -14767,7 +14767,7 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B600" t="s">
         <v>136</v>
@@ -14790,7 +14790,7 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B601" t="s">
         <v>136</v>
@@ -14813,7 +14813,7 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B602" t="s">
         <v>136</v>
@@ -14836,7 +14836,7 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B603" t="s">
         <v>136</v>
@@ -14859,7 +14859,7 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B604" t="s">
         <v>136</v>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B605" t="s">
         <v>136</v>
@@ -14905,7 +14905,7 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B606" t="s">
         <v>136</v>
@@ -14928,7 +14928,7 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B607" t="s">
         <v>136</v>
@@ -14951,7 +14951,7 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B608" t="s">
         <v>136</v>
@@ -14974,7 +14974,7 @@
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B609" t="s">
         <v>136</v>
@@ -14997,7 +14997,7 @@
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B610" t="s">
         <v>137</v>
@@ -15023,7 +15023,7 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B611" t="s">
         <v>137</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B612" t="s">
         <v>137</v>
@@ -15075,7 +15075,7 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B613" t="s">
         <v>137</v>
@@ -15101,7 +15101,7 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B614" t="s">
         <v>137</v>
@@ -15127,7 +15127,7 @@
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B615" t="s">
         <v>137</v>
@@ -15153,7 +15153,7 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B616" t="s">
         <v>137</v>
@@ -15179,7 +15179,7 @@
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B617" t="s">
         <v>137</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B638" t="s">
         <v>140</v>
@@ -15688,7 +15688,7 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B639" t="s">
         <v>140</v>
@@ -15711,7 +15711,7 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B640" t="s">
         <v>140</v>
@@ -15734,7 +15734,7 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B641" t="s">
         <v>140</v>
@@ -15757,7 +15757,7 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B642" t="s">
         <v>140</v>
@@ -15780,7 +15780,7 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B643" t="s">
         <v>140</v>
@@ -15803,7 +15803,7 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B644" t="s">
         <v>140</v>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B645" t="s">
         <v>140</v>
@@ -15849,7 +15849,7 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B646" t="s">
         <v>140</v>
@@ -15872,7 +15872,7 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B647" t="s">
         <v>140</v>
@@ -15895,7 +15895,7 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B648" t="s">
         <v>140</v>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B649" t="s">
         <v>140</v>
@@ -15941,7 +15941,7 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B650" t="s">
         <v>142</v>
@@ -15964,7 +15964,7 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B651" t="s">
         <v>142</v>
@@ -15987,7 +15987,7 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B652" t="s">
         <v>142</v>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B653" t="s">
         <v>142</v>
@@ -16033,7 +16033,7 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B654" t="s">
         <v>142</v>
@@ -16056,7 +16056,7 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B655" t="s">
         <v>142</v>
@@ -16079,7 +16079,7 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B656" t="s">
         <v>142</v>
@@ -16102,7 +16102,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B657" t="s">
         <v>142</v>
@@ -16125,7 +16125,7 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B658" t="s">
         <v>48</v>
@@ -16148,7 +16148,7 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B659" t="s">
         <v>48</v>
@@ -16171,7 +16171,7 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B660" t="s">
         <v>48</v>
@@ -16194,7 +16194,7 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B661" t="s">
         <v>48</v>
@@ -16217,7 +16217,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B662" t="s">
         <v>48</v>
@@ -16240,7 +16240,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B663" t="s">
         <v>48</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B664" t="s">
         <v>48</v>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B665" t="s">
         <v>48</v>
@@ -16309,7 +16309,7 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B666" t="s">
         <v>49</v>
@@ -16332,7 +16332,7 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B667" t="s">
         <v>49</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B668" t="s">
         <v>49</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B669" t="s">
         <v>49</v>
@@ -16401,7 +16401,7 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B670" t="s">
         <v>49</v>
@@ -16424,7 +16424,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B671" t="s">
         <v>49</v>
@@ -16447,7 +16447,7 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B672" t="s">
         <v>49</v>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B673" t="s">
         <v>49</v>
@@ -16493,7 +16493,7 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B674" t="s">
         <v>143</v>
@@ -16516,7 +16516,7 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B675" t="s">
         <v>143</v>
@@ -16539,7 +16539,7 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B676" t="s">
         <v>143</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B677" t="s">
         <v>143</v>
@@ -16585,7 +16585,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B678" t="s">
         <v>143</v>
@@ -16608,7 +16608,7 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B679" t="s">
         <v>143</v>
@@ -16631,7 +16631,7 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B680" t="s">
         <v>143</v>
@@ -16654,7 +16654,7 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B681" t="s">
         <v>143</v>
@@ -16677,7 +16677,7 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B682" t="s">
         <v>143</v>
@@ -16700,7 +16700,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B683" t="s">
         <v>143</v>
@@ -17827,7 +17827,7 @@
     </row>
     <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B732" t="s">
         <v>145</v>
@@ -17850,7 +17850,7 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B733" t="s">
         <v>145</v>
@@ -17873,7 +17873,7 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B734" t="s">
         <v>145</v>
@@ -17896,7 +17896,7 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B735" t="s">
         <v>145</v>
@@ -17919,7 +17919,7 @@
     </row>
     <row r="736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B736" t="s">
         <v>145</v>
@@ -17942,7 +17942,7 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B737" t="s">
         <v>145</v>
@@ -17965,7 +17965,7 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B738" t="s">
         <v>145</v>
@@ -17988,7 +17988,7 @@
     </row>
     <row r="739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B739" t="s">
         <v>145</v>
@@ -18011,7 +18011,7 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B740" t="s">
         <v>145</v>
@@ -18034,7 +18034,7 @@
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B741" t="s">
         <v>145</v>
@@ -18057,7 +18057,7 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B742" t="s">
         <v>145</v>
@@ -18080,7 +18080,7 @@
     </row>
     <row r="743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B743" t="s">
         <v>145</v>
@@ -18103,7 +18103,7 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B744" t="s">
         <v>147</v>
@@ -18126,7 +18126,7 @@
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B745" t="s">
         <v>147</v>
@@ -18149,7 +18149,7 @@
     </row>
     <row r="746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B746" t="s">
         <v>147</v>
@@ -18172,7 +18172,7 @@
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B747" t="s">
         <v>147</v>
@@ -18195,7 +18195,7 @@
     </row>
     <row r="748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B748" t="s">
         <v>147</v>
@@ -18218,7 +18218,7 @@
     </row>
     <row r="749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B749" t="s">
         <v>147</v>
@@ -18241,7 +18241,7 @@
     </row>
     <row r="750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B750" t="s">
         <v>147</v>
@@ -18264,7 +18264,7 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B751" t="s">
         <v>147</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B752" t="s">
         <v>147</v>
@@ -18310,7 +18310,7 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B753" t="s">
         <v>147</v>
@@ -18333,7 +18333,7 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B754" t="s">
         <v>147</v>
@@ -18356,7 +18356,7 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B755" t="s">
         <v>147</v>
@@ -18379,7 +18379,7 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B756" t="s">
         <v>149</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B757" t="s">
         <v>149</v>
@@ -18425,7 +18425,7 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B758" t="s">
         <v>149</v>
@@ -18448,7 +18448,7 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B759" t="s">
         <v>149</v>
@@ -18471,7 +18471,7 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B760" t="s">
         <v>149</v>
@@ -18494,7 +18494,7 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B761" t="s">
         <v>149</v>
@@ -18517,7 +18517,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B762" t="s">
         <v>149</v>
@@ -18540,7 +18540,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B763" t="s">
         <v>149</v>
@@ -18563,7 +18563,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B764" t="s">
         <v>149</v>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B765" t="s">
         <v>149</v>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B766" t="s">
         <v>149</v>
@@ -18632,7 +18632,7 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B767" t="s">
         <v>149</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B768" t="s">
         <v>151</v>
@@ -18678,7 +18678,7 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B769" t="s">
         <v>151</v>
@@ -18701,7 +18701,7 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B770" t="s">
         <v>151</v>
@@ -18724,7 +18724,7 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B771" t="s">
         <v>151</v>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B772" t="s">
         <v>151</v>
@@ -18770,7 +18770,7 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B773" t="s">
         <v>151</v>
@@ -18793,7 +18793,7 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B774" t="s">
         <v>151</v>
@@ -18816,7 +18816,7 @@
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B775" t="s">
         <v>151</v>
